--- a/static/output/Excel/lossres2xl-sol.xlsx
+++ b/static/output/Excel/lossres2xl-sol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C2807D-682C-40CC-8FAE-8E098F055439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDDC31B-7924-D042-A95C-9CD43D9F5719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="payment_details" sheetId="3" r:id="rId1"/>
@@ -36,26 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={285D8219-6301-49AA-A157-159A2F2E6A46}</author>
-  </authors>
-  <commentList>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{285D8219-6301-49AA-A157-159A2F2E6A46}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    There will be outstanding liabilities for k = 0 even if it occurs at k = 2.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Payment size</t>
   </si>
@@ -91,9 +73,6 @@
   </si>
   <si>
     <t>Period of origin</t>
-  </si>
-  <si>
-    <t>Calender Period</t>
   </si>
   <si>
     <t xml:space="preserve"> P(i,j) = Pbar(i,k)</t>
@@ -134,17 +113,24 @@
   <si>
     <t>4)</t>
   </si>
+  <si>
+    <t>Calendar Period (end)</t>
+  </si>
+  <si>
+    <t>Note that at the end of period 0, we haven't provided cover for periods 1 and 2 yet, so formally those future payments are not liabilities yet.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +176,19 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -430,22 +429,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
@@ -467,7 +467,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -495,30 +495,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FF3284A2-7F51-47F0-84E3-ECF3AF71AA61}"/>
   </cellStyles>
@@ -538,7 +542,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -724,13 +728,13 @@
             <c:numRef>
               <c:f>'Solutions_2.3.2'!$B$38:$B$62</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>487805.01000000007</c:v>
+                  <c:v>232310.08000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>487805.01000000007</c:v>
+                  <c:v>413354.58000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>487805.01000000007</c:v>
@@ -1005,7 +1009,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1685,9 +1689,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Ho Ming Lee" id="{A1BB1E3E-066E-494D-9963-774895E06E86}" userId="S::homing.lee@unimelb.edu.au::1ffcb7c2-831a-4e19-8b04-0338bd087a69" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1951,33 +1953,25 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C29" dT="2024-07-02T07:05:09.01" personId="{A1BB1E3E-066E-494D-9963-774895E06E86}" id="{285D8219-6301-49AA-A157-159A2F2E6A46}">
-    <text>There will be outstanding liabilities for k = 0 even if it occurs at k = 2.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604A471C-161D-49D8-846F-6895F2F24150}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -2000,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2009,7 +2003,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2032,7 +2026,7 @@
         <v>13226.34</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2055,7 +2049,7 @@
         <v>15685.86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2078,7 +2072,7 @@
         <v>14643.28</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -2101,7 +2095,7 @@
         <v>170041.89</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -2125,7 +2119,7 @@
       </c>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -2148,7 +2142,7 @@
         <v>9950.64</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -2171,7 +2165,7 @@
         <v>10889.6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -2194,7 +2188,7 @@
         <v>12538.73</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -2217,7 +2211,7 @@
         <v>137677.41</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -2240,7 +2234,7 @@
         <v>9988.1200000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -2263,7 +2257,7 @@
         <v>4645.09</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -2286,7 +2280,7 @@
         <v>5643.26</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>3</v>
       </c>
@@ -2309,7 +2303,7 @@
         <v>59155.11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>3</v>
       </c>
@@ -2338,36 +2332,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EAD220-FFF8-47A0-9568-C95660E897A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EAD220-FFF8-47A0-9568-C95660E897A4}">
   <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="27" width="9.140625" style="1"/>
-    <col min="28" max="28" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="27" width="16" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
@@ -2391,10 +2372,10 @@
       </c>
       <c r="H1" s="35"/>
       <c r="I1" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>3</v>
@@ -2404,24 +2385,24 @@
       </c>
       <c r="M1" s="37"/>
       <c r="N1" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="35"/>
       <c r="I2" s="26"/>
       <c r="J2" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="31"/>
@@ -2430,29 +2411,29 @@
         <v>10</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="4">
         <v>42071</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="4">
         <v>42132</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="4">
         <v>44250</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="4">
         <v>42491</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="44">
         <v>13226.34</v>
       </c>
       <c r="H3" s="31"/>
@@ -2479,26 +2460,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="43">
         <v>1</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="4">
         <v>42071</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="4">
         <v>42132</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="4">
         <v>44250</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="4">
         <v>42925</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="44">
         <v>15685.86</v>
       </c>
       <c r="H4" s="31"/>
@@ -2525,26 +2506,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="43">
         <v>1</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="4">
         <v>42071</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="4">
         <v>42132</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="4">
         <v>44250</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="4">
         <v>43649</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="44">
         <v>14643.28</v>
       </c>
       <c r="H5" s="31"/>
@@ -2571,26 +2552,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="43">
         <v>1</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="4">
         <v>42071</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="4">
         <v>42132</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="4">
         <v>44250</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="4">
         <v>44086</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="44">
         <v>170041.89</v>
       </c>
       <c r="H6" s="31"/>
@@ -2617,26 +2598,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="43">
         <v>1</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="4">
         <v>42071</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="4">
         <v>42132</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="4">
         <v>44250</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="4">
         <v>44250</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="44">
         <v>18712.71</v>
       </c>
       <c r="H7" s="31"/>
@@ -2663,26 +2644,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="43">
         <v>2</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="4">
         <v>42119</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="4">
         <v>42189</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="4">
         <v>43417</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="4">
         <v>42474</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="44">
         <v>9950.64</v>
       </c>
       <c r="H8" s="31"/>
@@ -2709,26 +2690,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="43">
         <v>2</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="4">
         <v>42119</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="4">
         <v>42189</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="4">
         <v>43417</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="4">
         <v>42740</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="44">
         <v>10889.6</v>
       </c>
       <c r="H9" s="31"/>
@@ -2755,26 +2736,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="43">
         <v>2</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="4">
         <v>42119</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="4">
         <v>42189</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="4">
         <v>43417</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="4">
         <v>43052</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="44">
         <v>12538.73</v>
       </c>
       <c r="H10" s="31"/>
@@ -2801,26 +2782,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="43">
         <v>2</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="4">
         <v>42119</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="4">
         <v>42189</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="4">
         <v>43417</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="4">
         <v>43320</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="44">
         <v>137677.41</v>
       </c>
       <c r="H11" s="31"/>
@@ -2847,26 +2828,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="43">
         <v>2</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="5">
         <v>5</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="4">
         <v>42119</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="4">
         <v>42189</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="4">
         <v>43417</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="4">
         <v>43417</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="44">
         <v>9988.1200000000008</v>
       </c>
       <c r="H12" s="31"/>
@@ -2893,26 +2874,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="43">
         <v>3</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="4">
         <v>42217</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="4">
         <v>42287</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="4">
         <v>43030</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="4">
         <v>42600</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="44">
         <v>4645.09</v>
       </c>
       <c r="H13" s="31"/>
@@ -2939,26 +2920,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="43">
         <v>3</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="5">
         <v>2</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="4">
         <v>42217</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="4">
         <v>42287</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="4">
         <v>43030</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="4">
         <v>42747</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="44">
         <v>5643.26</v>
       </c>
       <c r="H14" s="31"/>
@@ -2985,26 +2966,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="43">
         <v>3</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="5">
         <v>3</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="4">
         <v>42217</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="4">
         <v>42287</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="4">
         <v>43030</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="4">
         <v>42964</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="44">
         <v>59155.11</v>
       </c>
       <c r="H15" s="31"/>
@@ -3031,26 +3012,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="45">
         <v>3</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="46">
         <v>4</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="47">
         <v>42217</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="47">
         <v>42287</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="47">
         <v>43030</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="47">
         <v>43030</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="48">
         <v>5006.97</v>
       </c>
       <c r="H16" s="31"/>
@@ -3077,21 +3058,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
     </row>
-    <row r="19" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -3118,7 +3099,7 @@
       <c r="Z19" s="23"/>
       <c r="AA19" s="21"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="15" t="s">
         <v>11</v>
@@ -3199,111 +3180,111 @@
         <v>24</v>
       </c>
       <c r="AB20" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="25">
         <v>0</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="54">
         <f t="shared" ref="C21:L23" si="5">IF($B21+C$20&gt;24, "", SUMIFS($G$3:$G$16,$J$3:$J$16, $B21,$O$3:$O$16,C$20))</f>
         <v>0</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="54">
         <f t="shared" si="5"/>
         <v>13226.34</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="54">
         <f t="shared" ref="M21:AA23" si="6">IF($B21+M$20&gt;24, "", SUMIFS($G$3:$G$16,$J$3:$J$16, $B21,$O$3:$O$16,M$20))</f>
         <v>15685.86</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="54">
         <f t="shared" si="6"/>
         <v>14643.28</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="54">
         <f t="shared" si="6"/>
         <v>170041.89</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="25">
+      <c r="AA21" s="55">
         <f t="shared" si="6"/>
         <v>18712.71</v>
       </c>
@@ -3311,222 +3292,222 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="25">
         <v>1</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="54">
         <f t="shared" si="5"/>
         <v>9950.64</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="54">
         <f t="shared" si="5"/>
         <v>10889.6</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="54">
         <f t="shared" si="6"/>
         <v>12538.73</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="54">
         <f t="shared" si="6"/>
         <v>137677.41</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="54">
         <f t="shared" si="6"/>
         <v>9988.1200000000008</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z22" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="25">
+      <c r="AA22" s="55">
         <v>0</v>
       </c>
       <c r="AB22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="25">
         <v>2</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="54">
         <f t="shared" si="5"/>
         <v>4645.09</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="54">
         <f t="shared" si="5"/>
         <v>5643.26</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="54">
         <f t="shared" si="5"/>
         <v>59155.11</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="54">
         <f t="shared" si="5"/>
         <v>5006.97</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="25">
+      <c r="Z23" s="54">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="55">
         <v>0</v>
       </c>
       <c r="AB23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -3555,15 +3536,15 @@
       <c r="Z24" s="23"/>
       <c r="AA24" s="21"/>
     </row>
-    <row r="25" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -3590,7 +3571,7 @@
       <c r="Z25" s="23"/>
       <c r="AA25" s="21"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="15" t="s">
         <v>11</v>
@@ -3671,328 +3652,321 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="25">
         <v>0</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="54">
         <f>SUM(D21:$AB21)</f>
         <v>232310.08000000002</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="54">
         <f>SUM(E21:$AB21)</f>
         <v>232310.08000000002</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="54">
         <f>SUM(F21:$AB21)</f>
         <v>232310.08000000002</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="54">
         <f>SUM(G21:$AB21)</f>
         <v>232310.08000000002</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="54">
         <f>SUM(H21:$AB21)</f>
         <v>232310.08000000002</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="54">
         <f>SUM(I21:$AB21)</f>
         <v>219083.74000000002</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="54">
         <f>SUM(J21:$AB21)</f>
         <v>219083.74000000002</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="54">
         <f>SUM(K21:$AB21)</f>
         <v>219083.74000000002</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="54">
         <f>SUM(L21:$AB21)</f>
         <v>219083.74000000002</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="54">
         <f>SUM(M21:$AB21)</f>
         <v>219083.74000000002</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="54">
         <f>SUM(N21:$AB21)</f>
         <v>203397.88</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="54">
         <f>SUM(O21:$AB21)</f>
         <v>203397.88</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="54">
         <f>SUM(P21:$AB21)</f>
         <v>203397.88</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="54">
         <f>SUM(Q21:$AB21)</f>
         <v>203397.88</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="54">
         <f>SUM(R21:$AB21)</f>
         <v>203397.88</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="54">
         <f>SUM(S21:$AB21)</f>
         <v>203397.88</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="54">
         <f>SUM(T21:$AB21)</f>
         <v>203397.88</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T27" s="54">
         <f>SUM(U21:$AB21)</f>
         <v>203397.88</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U27" s="54">
         <f>SUM(V21:$AB21)</f>
         <v>188754.6</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V27" s="54">
         <f>SUM(W21:$AB21)</f>
         <v>188754.6</v>
       </c>
-      <c r="W27" s="1">
+      <c r="W27" s="54">
         <f>SUM(X21:$AB21)</f>
         <v>188754.6</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X27" s="54">
         <f>SUM(Y21:$AB21)</f>
         <v>188754.6</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Y27" s="54">
         <f>SUM(Z21:$AB21)</f>
         <v>18712.71</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="Z27" s="54">
         <f>SUM(AA21:$AB21)</f>
         <v>18712.71</v>
       </c>
-      <c r="AA27" s="25">
+      <c r="AA27" s="55">
         <f>SUM(AB21:$AB21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="25">
         <v>1</v>
       </c>
-      <c r="C28" s="1">
-        <f>SUM(C22:$AB22)</f>
-        <v>181044.5</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54">
         <f>SUM(D22:$AB22)</f>
         <v>181044.5</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="54">
         <f>SUM(E22:$AB22)</f>
         <v>181044.5</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="54">
         <f>SUM(F22:$AB22)</f>
         <v>181044.5</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="54">
         <f>SUM(G22:$AB22)</f>
         <v>181044.5</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="54">
         <f>SUM(H22:$AB22)</f>
         <v>171093.86</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="54">
         <f>SUM(I22:$AB22)</f>
         <v>171093.86</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="54">
         <f>SUM(J22:$AB22)</f>
         <v>171093.86</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="54">
         <f>SUM(K22:$AB22)</f>
         <v>160204.26</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="54">
         <f>SUM(L22:$AB22)</f>
         <v>160204.26</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="54">
         <f>SUM(M22:$AB22)</f>
         <v>160204.26</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="54">
         <f>SUM(N22:$AB22)</f>
         <v>147665.53</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="54">
         <f>SUM(O22:$AB22)</f>
         <v>147665.53</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="54">
         <f>SUM(P22:$AB22)</f>
         <v>147665.53</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="54">
         <f>SUM(Q22:$AB22)</f>
         <v>9988.1200000000008</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="54">
         <f>SUM(R22:$AB22)</f>
         <v>0</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="54">
         <f>SUM(S22:$AB22)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="1">
+      <c r="T28" s="54">
         <f>SUM(T22:$AB22)</f>
         <v>0</v>
       </c>
-      <c r="U28" s="1">
+      <c r="U28" s="54">
         <f>SUM(U22:$AB22)</f>
         <v>0</v>
       </c>
-      <c r="V28" s="1">
+      <c r="V28" s="54">
         <f>SUM(V22:$AB22)</f>
         <v>0</v>
       </c>
-      <c r="W28" s="1">
+      <c r="W28" s="54">
         <f>SUM(W22:$AB22)</f>
         <v>0</v>
       </c>
-      <c r="X28" s="1">
+      <c r="X28" s="54">
         <f>SUM(X22:$AB22)</f>
         <v>0</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Y28" s="54">
         <f>SUM(Y22:$AB22)</f>
         <v>0</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="Z28" s="54">
         <f>SUM(Z22:$AB22)</f>
         <v>0</v>
       </c>
-      <c r="AA28" s="25">
+      <c r="AA28" s="55">
         <f>SUM(AA22:$AB22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="25">
         <v>2</v>
       </c>
-      <c r="C29" s="1">
-        <f>SUM(C23:$AB23)</f>
-        <v>74450.430000000008</v>
-      </c>
-      <c r="D29" s="1">
-        <f>SUM(C23:$AB23)</f>
-        <v>74450.430000000008</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54">
         <f>SUM(D23:$AB23)</f>
         <v>74450.430000000008</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="54">
         <f>SUM(E23:$AB23)</f>
         <v>74450.430000000008</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="54">
         <f>SUM(F23:$AB23)</f>
         <v>74450.430000000008</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="54">
         <f>SUM(G23:$AB23)</f>
         <v>74450.430000000008</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="54">
         <f>SUM(H23:$AB23)</f>
         <v>69805.34</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="54">
         <f>SUM(I23:$AB23)</f>
         <v>69805.34</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="54">
         <f>SUM(J23:$AB23)</f>
         <v>64162.080000000002</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="54">
         <f>SUM(K23:$AB23)</f>
         <v>64162.080000000002</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="54">
         <f>SUM(L23:$AB23)</f>
         <v>5006.97</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="54">
         <f>SUM(M23:$AB23)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="54">
         <f>SUM(N23:$AB23)</f>
         <v>0</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="54">
         <f>SUM(O23:$AB23)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="54">
         <f>SUM(P23:$AB23)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="54">
         <f>SUM(Q23:$AB23)</f>
         <v>0</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="54">
         <f>SUM(R23:$AB23)</f>
         <v>0</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T29" s="54">
         <f>SUM(S23:$AB23)</f>
         <v>0</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U29" s="54">
         <f>SUM(T23:$AB23)</f>
         <v>0</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V29" s="54">
         <f>SUM(U23:$AB23)</f>
         <v>0</v>
       </c>
-      <c r="W29" s="1">
+      <c r="W29" s="54">
         <f>SUM(V23:$AB23)</f>
         <v>0</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X29" s="54">
         <f>SUM(W23:$AB23)</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Y29" s="54">
         <f>SUM(X23:$AB23)</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="Z29" s="54">
         <f>SUM(Y23:$AB23)</f>
         <v>0</v>
       </c>
-      <c r="AA29" s="25">
+      <c r="AA29" s="55">
         <f>SUM(Z23:$AB23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="C30" s="56" t="s">
+        <v>26</v>
+      </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -4018,9 +3992,9 @@
       <c r="Z30" s="23"/>
       <c r="AA30" s="21"/>
     </row>
-    <row r="31" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>10</v>
@@ -4101,382 +4075,382 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="52">
         <f t="shared" ref="C32:AA32" si="7">SUM(C27:C29)</f>
-        <v>487805.01</v>
-      </c>
-      <c r="D32" s="16">
+        <v>232310.08000000002</v>
+      </c>
+      <c r="D32" s="52">
+        <f t="shared" si="7"/>
+        <v>413354.58</v>
+      </c>
+      <c r="E32" s="52">
         <f t="shared" si="7"/>
         <v>487805.01</v>
       </c>
-      <c r="E32" s="16">
+      <c r="F32" s="52">
         <f t="shared" si="7"/>
         <v>487805.01</v>
       </c>
-      <c r="F32" s="16">
+      <c r="G32" s="52">
         <f t="shared" si="7"/>
         <v>487805.01</v>
       </c>
-      <c r="G32" s="16">
-        <f t="shared" si="7"/>
-        <v>487805.01</v>
-      </c>
-      <c r="H32" s="16">
+      <c r="H32" s="52">
         <f t="shared" si="7"/>
         <v>464628.02999999997</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="52">
         <f t="shared" si="7"/>
         <v>459982.93999999994</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="52">
         <f t="shared" si="7"/>
         <v>459982.93999999994</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="52">
         <f t="shared" si="7"/>
         <v>443450.08</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="52">
         <f t="shared" si="7"/>
         <v>443450.08</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="52">
         <f t="shared" si="7"/>
         <v>368609.11</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N32" s="52">
         <f t="shared" si="7"/>
         <v>351063.41000000003</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32" s="52">
         <f t="shared" si="7"/>
         <v>351063.41000000003</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32" s="52">
         <f t="shared" si="7"/>
         <v>351063.41000000003</v>
       </c>
-      <c r="Q32" s="16">
+      <c r="Q32" s="52">
         <f t="shared" si="7"/>
         <v>213386</v>
       </c>
-      <c r="R32" s="16">
+      <c r="R32" s="52">
         <f t="shared" si="7"/>
         <v>203397.88</v>
       </c>
-      <c r="S32" s="16">
+      <c r="S32" s="52">
         <f t="shared" si="7"/>
         <v>203397.88</v>
       </c>
-      <c r="T32" s="16">
+      <c r="T32" s="52">
         <f t="shared" si="7"/>
         <v>203397.88</v>
       </c>
-      <c r="U32" s="16">
+      <c r="U32" s="52">
         <f t="shared" si="7"/>
         <v>188754.6</v>
       </c>
-      <c r="V32" s="16">
+      <c r="V32" s="52">
         <f t="shared" si="7"/>
         <v>188754.6</v>
       </c>
-      <c r="W32" s="16">
+      <c r="W32" s="52">
         <f t="shared" si="7"/>
         <v>188754.6</v>
       </c>
-      <c r="X32" s="16">
+      <c r="X32" s="52">
         <f t="shared" si="7"/>
         <v>188754.6</v>
       </c>
-      <c r="Y32" s="16">
+      <c r="Y32" s="52">
         <f t="shared" si="7"/>
         <v>18712.71</v>
       </c>
-      <c r="Z32" s="16">
+      <c r="Z32" s="52">
         <f t="shared" si="7"/>
         <v>18712.71</v>
       </c>
-      <c r="AA32" s="15">
+      <c r="AA32" s="53">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J37" s="49"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>0</v>
       </c>
-      <c r="B38" s="10">
-        <f t="shared" ref="B38:B62" si="8">SUMIF(N$3:N$16,CONCATENATE("&gt;",A38),G$3:G$16)</f>
+      <c r="B38" s="50">
+        <f>SUMIFS(G$3:G$16,N$3:N$16,CONCATENATE("&gt;",A38),J$3:J$16,CONCATENATE("&lt;",A38+1))</f>
+        <v>232310.08000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <f t="shared" ref="A39:A62" si="8">A38+1</f>
+        <v>1</v>
+      </c>
+      <c r="B39" s="50">
+        <f t="shared" ref="B39:B62" si="9">SUMIFS(G$3:G$16,N$3:N$16,CONCATENATE("&gt;",A39),J$3:J$16,CONCATENATE("&lt;",A39+1))</f>
+        <v>413354.58000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B40" s="50">
+        <f t="shared" si="9"/>
         <v>487805.01000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
-        <f t="shared" ref="A39:A62" si="9">A38+1</f>
-        <v>1</v>
-      </c>
-      <c r="B39" s="10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
         <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B41" s="50">
+        <f t="shared" si="9"/>
         <v>487805.01000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B42" s="50">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="B40" s="10">
+        <v>487805.01000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
         <f t="shared" si="8"/>
-        <v>487805.01000000007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+        <v>5</v>
+      </c>
+      <c r="B43" s="50">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="B41" s="10">
+        <v>464628.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
         <f t="shared" si="8"/>
-        <v>487805.01000000007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+        <v>6</v>
+      </c>
+      <c r="B44" s="50">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="B42" s="10">
+        <v>459982.94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
         <f t="shared" si="8"/>
-        <v>487805.01000000007</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+        <v>7</v>
+      </c>
+      <c r="B45" s="50">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="B43" s="10">
+        <v>459982.94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
         <f t="shared" si="8"/>
-        <v>464628.03</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+        <v>8</v>
+      </c>
+      <c r="B46" s="50">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="B44" s="10">
+        <v>443450.07999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
         <f t="shared" si="8"/>
-        <v>459982.94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+        <v>9</v>
+      </c>
+      <c r="B47" s="50">
         <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="B45" s="10">
+        <v>443450.07999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
         <f t="shared" si="8"/>
-        <v>459982.94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+        <v>10</v>
+      </c>
+      <c r="B48" s="50">
         <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="B46" s="10">
+        <v>368609.11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
         <f t="shared" si="8"/>
-        <v>443450.07999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+        <v>11</v>
+      </c>
+      <c r="B49" s="50">
         <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="B47" s="10">
+        <v>351063.41000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
         <f t="shared" si="8"/>
-        <v>443450.07999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+        <v>12</v>
+      </c>
+      <c r="B50" s="50">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="B48" s="10">
+        <v>351063.41000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
         <f t="shared" si="8"/>
-        <v>368609.11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+        <v>13</v>
+      </c>
+      <c r="B51" s="50">
         <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="B49" s="10">
+        <v>351063.41000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
         <f t="shared" si="8"/>
-        <v>351063.41000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+        <v>14</v>
+      </c>
+      <c r="B52" s="50">
         <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="B50" s="10">
+        <v>213386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
         <f t="shared" si="8"/>
-        <v>351063.41000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+        <v>15</v>
+      </c>
+      <c r="B53" s="50">
         <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="B51" s="10">
+        <v>203397.88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
         <f t="shared" si="8"/>
-        <v>351063.41000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+        <v>16</v>
+      </c>
+      <c r="B54" s="50">
         <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="B52" s="10">
+        <v>203397.88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
         <f t="shared" si="8"/>
-        <v>213386</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
+        <v>17</v>
+      </c>
+      <c r="B55" s="50">
         <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="B53" s="10">
+        <v>203397.88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
         <f t="shared" si="8"/>
-        <v>203397.88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+        <v>18</v>
+      </c>
+      <c r="B56" s="50">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="B54" s="10">
+        <v>188754.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
         <f t="shared" si="8"/>
-        <v>203397.88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
+        <v>19</v>
+      </c>
+      <c r="B57" s="50">
         <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="B55" s="10">
+        <v>188754.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
         <f t="shared" si="8"/>
-        <v>203397.88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
+        <v>20</v>
+      </c>
+      <c r="B58" s="50">
         <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="B56" s="10">
+        <v>188754.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
         <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="B59" s="50">
+        <f t="shared" si="9"/>
         <v>188754.6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="B60" s="50">
         <f t="shared" si="9"/>
-        <v>19</v>
-      </c>
-      <c r="B57" s="10">
+        <v>18712.71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
         <f t="shared" si="8"/>
-        <v>188754.6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
+        <v>23</v>
+      </c>
+      <c r="B61" s="50">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="B58" s="10">
+        <v>18712.71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
         <f t="shared" si="8"/>
-        <v>188754.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
+        <v>24</v>
+      </c>
+      <c r="B62" s="51">
         <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="B59" s="10">
-        <f t="shared" si="8"/>
-        <v>188754.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
-        <f t="shared" si="9"/>
-        <v>22</v>
-      </c>
-      <c r="B60" s="10">
-        <f t="shared" si="8"/>
-        <v>18712.71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
-        <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="B61" s="10">
-        <f t="shared" si="8"/>
-        <v>18712.71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="B62" s="8">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>